--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -5,24 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grau Comercial\Desktop\Jhol\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5792D302-5E36-4CBC-9D8B-10F31D25ABE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF4211-4761-4052-BA44-8BECC5C931CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
     <sheet name="Precos" sheetId="2" r:id="rId2"/>
     <sheet name="Acesso" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="96">
   <si>
     <t>Modalidade</t>
   </si>
@@ -48,78 +56,12 @@
     <t>DataInicio</t>
   </si>
   <si>
-    <t>COLETA DE SANGUE</t>
-  </si>
-  <si>
-    <t>terça e sexta</t>
-  </si>
-  <si>
-    <t>27/06/2025</t>
-  </si>
-  <si>
-    <t>sábados</t>
-  </si>
-  <si>
-    <t>28/06/2025</t>
-  </si>
-  <si>
-    <t>CUIDADOR DE IDOSOS</t>
-  </si>
-  <si>
-    <t>terça e quinta</t>
-  </si>
-  <si>
-    <t>BOMBEIRO CIVIL</t>
-  </si>
-  <si>
-    <t>21/06/2025</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
     <t>ValorCheio</t>
   </si>
   <si>
     <t>Parcelas</t>
   </si>
   <si>
-    <t>BOMBEIRO CIVIL - RECICLAGEM</t>
-  </si>
-  <si>
-    <t>AUTO CAD 2D E 3D</t>
-  </si>
-  <si>
-    <t>AUTO CAD BASICO</t>
-  </si>
-  <si>
-    <t>AUTO CAD MECANICA</t>
-  </si>
-  <si>
-    <t>AUTOCAD COMPLETO</t>
-  </si>
-  <si>
-    <t>BALCONISTA DE FARMÁCIA</t>
-  </si>
-  <si>
-    <t>BACK END</t>
-  </si>
-  <si>
-    <t>CANVA</t>
-  </si>
-  <si>
-    <t>DESENVOLVEDOR DE GAMES</t>
-  </si>
-  <si>
-    <t>DESIGNER GRAFICO</t>
-  </si>
-  <si>
-    <t>EMPREENDEDORISMO</t>
-  </si>
-  <si>
-    <t>EMPREGABILIDADE</t>
-  </si>
-  <si>
     <t>EXCEL AVANÇADO</t>
   </si>
   <si>
@@ -201,18 +143,6 @@
     <t>19H ÀS 22H</t>
   </si>
   <si>
-    <t>08H ÀS 15H</t>
-  </si>
-  <si>
-    <t>1ª</t>
-  </si>
-  <si>
-    <t>Aula Inaugural</t>
-  </si>
-  <si>
-    <t>BOMBEIRO CIVIL RECICLAGEM</t>
-  </si>
-  <si>
     <t>MANHÃ</t>
   </si>
   <si>
@@ -243,56 +173,158 @@
     <t>Consultor Comercial</t>
   </si>
   <si>
-    <t>leo</t>
-  </si>
-  <si>
-    <t>thay</t>
-  </si>
-  <si>
-    <t>guilherme</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
     <t>allysson</t>
   </si>
   <si>
-    <t>lorena</t>
-  </si>
-  <si>
-    <t>Diretora</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
-    <t>Consultor</t>
-  </si>
-  <si>
     <t>Jholvan</t>
   </si>
   <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Thaisse</t>
-  </si>
-  <si>
     <t>Allysson</t>
   </si>
   <si>
-    <t>Lorena</t>
-  </si>
-  <si>
     <t>Coordenador</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA AVANÇADA</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO EXPERT</t>
+  </si>
+  <si>
+    <t>ATENDENTE DE FARMÁCIA</t>
+  </si>
+  <si>
+    <t>GESTOR DE FARMÁCIA</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA MELHOR IDADE</t>
+  </si>
+  <si>
+    <t>SECRETARIADO EXECUTIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADM. E FINANCEIRO</t>
+  </si>
+  <si>
+    <t>GESTÃO FINANCEIRA</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA CRIATIVA</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>AUXILIAR BANCÁRIO</t>
+  </si>
+  <si>
+    <t>ASSISTENTE DE MARKETING</t>
+  </si>
+  <si>
+    <t>TÉCNICAS ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>CONFEITARIA PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>CHEF PROFISSIONAL + INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>MASSAGEM PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE VETERINÁRIO + BANHO E TOSA</t>
+  </si>
+  <si>
+    <t>MAQUIAGEM PROFISSIONAL + LASH DESIGN</t>
+  </si>
+  <si>
+    <t>MANICURE + ALONGAMENTO DE UNHAS</t>
+  </si>
+  <si>
+    <t>BARBEARIA PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>CABELEIREIRO PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>09 ÀS 12H</t>
+  </si>
+  <si>
+    <t>QUARTA-FEIRA</t>
+  </si>
+  <si>
+    <t>QUINTA-FEIRA</t>
+  </si>
+  <si>
+    <t>08:30H ÀS 12H</t>
+  </si>
+  <si>
+    <t>18:30H ÀS 22H</t>
+  </si>
+  <si>
+    <t>SÁBADOS</t>
+  </si>
+  <si>
+    <t>SEGUNDA-FEIRA</t>
+  </si>
+  <si>
+    <t>14H ÀS 17H</t>
+  </si>
+  <si>
+    <t>TERÇA-FEIRA</t>
+  </si>
+  <si>
+    <t>18H ÀS 22H</t>
+  </si>
+  <si>
+    <t>13:30H ÀS 17:30H</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA BÁSICA</t>
+  </si>
+  <si>
+    <t>INGLÊS</t>
+  </si>
+  <si>
+    <t>10H-12H</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>bya</t>
+  </si>
+  <si>
+    <t>Byanca</t>
+  </si>
+  <si>
+    <t>elis</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>Consultora Comercial</t>
+  </si>
+  <si>
+    <t>Elisangela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +337,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,2541 +738,2645 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45792</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45801</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
         <v>35</v>
       </c>
-      <c r="C68" t="s">
-        <v>57</v>
-      </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E89" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E94" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E97" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E101" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E103" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E106" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E107" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E109" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E110" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E111" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E112" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E114" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E115" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E116" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E117" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E118" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E119" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E120" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E121" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D122" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E123" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E124" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D126" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E126" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D128" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E128" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E129" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E130" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D131" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E131" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D132" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E132" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E133" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E134" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E135" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E136" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E137" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E138" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E139" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C140" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E140" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C141" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E141" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C142" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D142" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E142" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E143" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E144" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B145" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E145" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C146" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D147" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E147" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E148" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>41</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D153" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3243,7 +3385,7 @@
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,21 +3401,21 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>5220</v>
+        <v>3846.08</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -3281,220 +3423,220 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1740</v>
+        <v>9690.74</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>2175</v>
+        <v>9690.74</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>2175</v>
+        <v>9690.74</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>2175</v>
+        <v>9690.74</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>2175</v>
+        <v>9690.74</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>2175</v>
+        <v>8447.5400000000009</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>3600</v>
+        <v>7293.59</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>3600</v>
+        <v>6657.34</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>3600</v>
+        <v>6657.34</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>3600</v>
+        <v>6361.63</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>1200</v>
+        <v>6361.63</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>1200</v>
+        <v>6361.63</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>1200</v>
+        <v>4512.37</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>1200</v>
+        <v>8654.89</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>3000</v>
+        <v>8654.89</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>3000</v>
@@ -3505,10 +3647,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>3000</v>
@@ -3519,10 +3661,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>3000</v>
@@ -3533,10 +3675,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>5100</v>
@@ -3547,10 +3689,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>5100</v>
@@ -3561,10 +3703,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>5100</v>
@@ -3575,10 +3717,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>5100</v>
@@ -3589,10 +3731,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>2800</v>
@@ -3603,10 +3745,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>2800</v>
@@ -3617,10 +3759,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>2800</v>
@@ -3631,10 +3773,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>2800</v>
@@ -3645,10 +3787,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>4500</v>
@@ -3659,10 +3801,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>4500</v>
@@ -3673,10 +3815,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>4500</v>
@@ -3687,10 +3829,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>4500</v>
@@ -3701,10 +3843,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>1500</v>
@@ -3715,10 +3857,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>1500</v>
@@ -3729,10 +3871,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>1500</v>
@@ -3743,10 +3885,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>1500</v>
@@ -3757,10 +3899,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>3600</v>
@@ -3771,10 +3913,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>3600</v>
@@ -3785,10 +3927,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>3600</v>
@@ -3799,10 +3941,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>3600</v>
@@ -3813,10 +3955,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>5400</v>
@@ -3827,10 +3969,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>5400</v>
@@ -3841,10 +3983,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>5400</v>
@@ -3855,10 +3997,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>5400</v>
@@ -3869,10 +4011,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>2240</v>
@@ -3883,10 +4025,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C46">
         <v>2240</v>
@@ -3897,10 +4039,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>2240</v>
@@ -3911,10 +4053,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>2240</v>
@@ -3925,10 +4067,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>1680</v>
@@ -3939,10 +4081,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C50">
         <v>1680</v>
@@ -3953,10 +4095,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>1680</v>
@@ -3967,10 +4109,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>1680</v>
@@ -3981,10 +4123,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C53">
         <v>1120</v>
@@ -3995,10 +4137,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C54">
         <v>1120</v>
@@ -4009,10 +4151,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>1120</v>
@@ -4023,10 +4165,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C56">
         <v>1120</v>
@@ -4037,10 +4179,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>1120</v>
@@ -4051,10 +4193,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C58">
         <v>1120</v>
@@ -4065,10 +4207,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C59">
         <v>1120</v>
@@ -4079,10 +4221,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C60">
         <v>1120</v>
@@ -4093,10 +4235,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>2800</v>
@@ -4107,10 +4249,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C62">
         <v>2800</v>
@@ -4121,10 +4263,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>2800</v>
@@ -4134,12 +4276,6 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
-      </c>
       <c r="C64">
         <v>2800</v>
       </c>
@@ -4147,13 +4283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>2700</v>
       </c>
@@ -4161,13 +4291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>2700</v>
       </c>
@@ -4175,13 +4299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>2700</v>
       </c>
@@ -4189,13 +4307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>2700</v>
       </c>
@@ -4203,13 +4315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>2240</v>
       </c>
@@ -4217,13 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>2240</v>
       </c>
@@ -4231,13 +4331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" t="s">
-        <v>56</v>
-      </c>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>2240</v>
       </c>
@@ -4245,13 +4339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>2240</v>
       </c>
@@ -4259,13 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" t="s">
-        <v>63</v>
-      </c>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>1400</v>
       </c>
@@ -4273,13 +4355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" t="s">
-        <v>64</v>
-      </c>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>1400</v>
       </c>
@@ -4287,13 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" t="s">
-        <v>56</v>
-      </c>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>1400</v>
       </c>
@@ -4301,13 +4371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" t="s">
-        <v>57</v>
-      </c>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>1400</v>
       </c>
@@ -4315,13 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" t="s">
-        <v>63</v>
-      </c>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>1400</v>
       </c>
@@ -4329,13 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>1400</v>
       </c>
@@ -4343,13 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>1400</v>
       </c>
@@ -4357,13 +4403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>1400</v>
       </c>
@@ -4371,13 +4411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" t="s">
-        <v>63</v>
-      </c>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>2240</v>
       </c>
@@ -4385,13 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" t="s">
-        <v>64</v>
-      </c>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>2240</v>
       </c>
@@ -4399,13 +4427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" t="s">
-        <v>56</v>
-      </c>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>2240</v>
       </c>
@@ -4413,13 +4435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" t="s">
-        <v>57</v>
-      </c>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>2240</v>
       </c>
@@ -4427,13 +4443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>1400</v>
       </c>
@@ -4441,13 +4451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" t="s">
-        <v>64</v>
-      </c>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>1400</v>
       </c>
@@ -4455,13 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" t="s">
-        <v>56</v>
-      </c>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>1400</v>
       </c>
@@ -4469,13 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>1400</v>
       </c>
@@ -4483,13 +4475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" t="s">
-        <v>63</v>
-      </c>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>840</v>
       </c>
@@ -4497,13 +4483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" t="s">
-        <v>64</v>
-      </c>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>840</v>
       </c>
@@ -4511,13 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
-      </c>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>840</v>
       </c>
@@ -4525,13 +4499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" t="s">
-        <v>57</v>
-      </c>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>840</v>
       </c>
@@ -4539,13 +4507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>2240</v>
       </c>
@@ -4553,13 +4515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" t="s">
-        <v>64</v>
-      </c>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>2240</v>
       </c>
@@ -4567,13 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B95" t="s">
-        <v>56</v>
-      </c>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>2240</v>
       </c>
@@ -4581,13 +4531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" t="s">
-        <v>57</v>
-      </c>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>2240</v>
       </c>
@@ -4595,13 +4539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>4760</v>
       </c>
@@ -4609,13 +4547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" t="s">
-        <v>64</v>
-      </c>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>4760</v>
       </c>
@@ -4623,13 +4555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" t="s">
-        <v>56</v>
-      </c>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>4760</v>
       </c>
@@ -4637,13 +4563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" t="s">
-        <v>57</v>
-      </c>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>4760</v>
       </c>
@@ -4651,13 +4571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>5600</v>
       </c>
@@ -4665,13 +4579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>5600</v>
       </c>
@@ -4679,13 +4587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" t="s">
-        <v>56</v>
-      </c>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>5600</v>
       </c>
@@ -4693,13 +4595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" t="s">
-        <v>57</v>
-      </c>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>5600</v>
       </c>
@@ -4707,13 +4603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" t="s">
-        <v>63</v>
-      </c>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>3640</v>
       </c>
@@ -4721,13 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>3640</v>
       </c>
@@ -4735,13 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" t="s">
-        <v>56</v>
-      </c>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>3640</v>
       </c>
@@ -4749,13 +4627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" t="s">
-        <v>57</v>
-      </c>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>3640</v>
       </c>
@@ -4763,13 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" t="s">
-        <v>63</v>
-      </c>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>1120</v>
       </c>
@@ -4777,13 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" t="s">
-        <v>64</v>
-      </c>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>1120</v>
       </c>
@@ -4791,13 +4651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" t="s">
-        <v>56</v>
-      </c>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>1120</v>
       </c>
@@ -4805,13 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" t="s">
-        <v>57</v>
-      </c>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>1120</v>
       </c>
@@ -4819,13 +4667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>47</v>
-      </c>
-      <c r="B113" t="s">
-        <v>63</v>
-      </c>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>3080</v>
       </c>
@@ -4833,13 +4675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" t="s">
-        <v>64</v>
-      </c>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>3080</v>
       </c>
@@ -4847,13 +4683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" t="s">
-        <v>56</v>
-      </c>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>3080</v>
       </c>
@@ -4861,13 +4691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>47</v>
-      </c>
-      <c r="B116" t="s">
-        <v>57</v>
-      </c>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>3080</v>
       </c>
@@ -4875,13 +4699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" t="s">
-        <v>63</v>
-      </c>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>1500</v>
       </c>
@@ -4889,13 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118" t="s">
-        <v>64</v>
-      </c>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>1500</v>
       </c>
@@ -4903,13 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>48</v>
-      </c>
-      <c r="B119" t="s">
-        <v>56</v>
-      </c>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>1500</v>
       </c>
@@ -4917,13 +4723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" t="s">
-        <v>57</v>
-      </c>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>1500</v>
       </c>
@@ -4931,13 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>49</v>
-      </c>
-      <c r="B121" t="s">
-        <v>63</v>
-      </c>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>5400</v>
       </c>
@@ -4945,13 +4739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>49</v>
-      </c>
-      <c r="B122" t="s">
-        <v>64</v>
-      </c>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>5400</v>
       </c>
@@ -4959,13 +4747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>49</v>
-      </c>
-      <c r="B123" t="s">
-        <v>56</v>
-      </c>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>5400</v>
       </c>
@@ -4973,13 +4755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>49</v>
-      </c>
-      <c r="B124" t="s">
-        <v>57</v>
-      </c>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>5400</v>
       </c>
@@ -4987,13 +4763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" t="s">
-        <v>63</v>
-      </c>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>1400</v>
       </c>
@@ -5001,13 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" t="s">
-        <v>64</v>
-      </c>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>1400</v>
       </c>
@@ -5015,13 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" t="s">
-        <v>56</v>
-      </c>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>1400</v>
       </c>
@@ -5029,13 +4787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" t="s">
-        <v>57</v>
-      </c>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>1400</v>
       </c>
@@ -5043,13 +4795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129" t="s">
-        <v>63</v>
-      </c>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>3360</v>
       </c>
@@ -5057,13 +4803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>51</v>
-      </c>
-      <c r="B130" t="s">
-        <v>64</v>
-      </c>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>3360</v>
       </c>
@@ -5071,13 +4811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>51</v>
-      </c>
-      <c r="B131" t="s">
-        <v>56</v>
-      </c>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>3360</v>
       </c>
@@ -5085,13 +4819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>51</v>
-      </c>
-      <c r="B132" t="s">
-        <v>57</v>
-      </c>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>3360</v>
       </c>
@@ -5099,13 +4827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>52</v>
-      </c>
-      <c r="B133" t="s">
-        <v>63</v>
-      </c>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>1120</v>
       </c>
@@ -5113,13 +4835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B134" t="s">
-        <v>64</v>
-      </c>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>1120</v>
       </c>
@@ -5127,13 +4843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>52</v>
-      </c>
-      <c r="B135" t="s">
-        <v>56</v>
-      </c>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>1120</v>
       </c>
@@ -5141,13 +4851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" t="s">
-        <v>57</v>
-      </c>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>1120</v>
       </c>
@@ -5155,13 +4859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>53</v>
-      </c>
-      <c r="B137" t="s">
-        <v>63</v>
-      </c>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>1120</v>
       </c>
@@ -5169,13 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>53</v>
-      </c>
-      <c r="B138" t="s">
-        <v>64</v>
-      </c>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>1120</v>
       </c>
@@ -5183,13 +4875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>53</v>
-      </c>
-      <c r="B139" t="s">
-        <v>56</v>
-      </c>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>1120</v>
       </c>
@@ -5197,13 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>53</v>
-      </c>
-      <c r="B140" t="s">
-        <v>57</v>
-      </c>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>1120</v>
       </c>
@@ -5211,13 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>54</v>
-      </c>
-      <c r="B141" t="s">
-        <v>63</v>
-      </c>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>5100</v>
       </c>
@@ -5225,13 +4899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>54</v>
-      </c>
-      <c r="B142" t="s">
-        <v>64</v>
-      </c>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>5100</v>
       </c>
@@ -5239,13 +4907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143" t="s">
-        <v>56</v>
-      </c>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>5100</v>
       </c>
@@ -5253,13 +4915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144" t="s">
-        <v>57</v>
-      </c>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>5100</v>
       </c>
@@ -5267,13 +4923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>55</v>
-      </c>
-      <c r="B145" t="s">
-        <v>63</v>
-      </c>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>2520</v>
       </c>
@@ -5281,13 +4931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" t="s">
-        <v>64</v>
-      </c>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>2520</v>
       </c>
@@ -5295,13 +4939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147" t="s">
-        <v>56</v>
-      </c>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>2520</v>
       </c>
@@ -5309,13 +4947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>55</v>
-      </c>
-      <c r="B148" t="s">
-        <v>57</v>
-      </c>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>2520</v>
       </c>
@@ -5332,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD02462-9592-41D0-9BA5-46338CD96031}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,101 +4976,79 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4">
         <v>7704</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5207</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5709</v>
+        <v>92</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
-        <v>4764</v>
+        <v>7309</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7309</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4859</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF4211-4761-4052-BA44-8BECC5C931CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D11561-352D-4C2B-8226-01D9252A4E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -3384,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,7 +3415,7 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>3846.08</v>
+        <v>3690.46</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -3429,7 +3429,7 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>9690.74</v>
+        <v>9689.08</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -3443,7 +3443,7 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <v>9690.74</v>
+        <v>9689.08</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -3457,7 +3457,7 @@
         <v>37</v>
       </c>
       <c r="C5">
-        <v>9690.74</v>
+        <v>9689.08</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -3471,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>9690.74</v>
+        <v>9689.08</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -3485,7 +3485,7 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>9690.74</v>
+        <v>9689.08</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -3499,7 +3499,7 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>8447.5400000000009</v>
+        <v>8396.77</v>
       </c>
       <c r="D8">
         <v>21</v>
@@ -3513,7 +3513,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>7293.59</v>
+        <v>7197.23</v>
       </c>
       <c r="D9">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>6657.34</v>
+        <v>6535.85</v>
       </c>
       <c r="D10">
         <v>17</v>
@@ -3541,7 +3541,7 @@
         <v>34</v>
       </c>
       <c r="C11">
-        <v>6657.34</v>
+        <v>6535.85</v>
       </c>
       <c r="D11">
         <v>17</v>
@@ -3555,7 +3555,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>6361.63</v>
+        <v>6228.46</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -3569,7 +3569,7 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>6361.63</v>
+        <v>6228.46</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -3583,7 +3583,7 @@
         <v>34</v>
       </c>
       <c r="C14">
-        <v>6361.63</v>
+        <v>6228.46</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -3597,7 +3597,7 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>4512.37</v>
+        <v>4306.1499999999996</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -3611,7 +3611,7 @@
         <v>37</v>
       </c>
       <c r="C16">
-        <v>8654.89</v>
+        <v>8612.31</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -3625,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>8654.89</v>
+        <v>8612.31</v>
       </c>
       <c r="D17">
         <v>20</v>

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="102">
   <si>
     <t>Modalidade</t>
   </si>
@@ -302,37 +302,28 @@
     <t>Jholvan</t>
   </si>
   <si>
-    <t>Consultor Comercial</t>
-  </si>
-  <si>
-    <t>bya</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>Byanca</t>
+    <t>Coordenador</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>9252</t>
+  </si>
+  <si>
+    <t>Ana Lúcia</t>
   </si>
   <si>
     <t>Consultora Comercial</t>
   </si>
   <si>
-    <t>elis</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>Elisangela</t>
-  </si>
-  <si>
-    <t>allysson</t>
-  </si>
-  <si>
-    <t>Allysson</t>
-  </si>
-  <si>
-    <t>Coordenador</t>
+    <t>thay</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>Thaysse</t>
   </si>
 </sst>
 </file>
@@ -391,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -406,6 +397,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6835,18 +6832,18 @@
       <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6854,13 +6851,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -6868,22 +6865,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6">
-        <v>7309.0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1892D6-5CB1-4D54-8BA1-AA9F5BE4C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040866C-1092-4FFF-A8D5-509610A76B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="105">
   <si>
     <t>Modalidade</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Thaysse</t>
+  </si>
+  <si>
+    <t>lorena</t>
+  </si>
+  <si>
+    <t>Lorena Pícolo</t>
+  </si>
+  <si>
+    <t>Diretora</t>
   </si>
 </sst>
 </file>
@@ -629,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6795,7 +6804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6862,10 +6873,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040866C-1092-4FFF-A8D5-509610A76B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5DEACA-1F75-4554-8B72-6FC5B01865B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
     <sheet name="Precos" sheetId="2" r:id="rId2"/>
     <sheet name="Acesso" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="XejdV5WVfxVxqjHOHpF0fXEH38N2a54xcYiNHTJQ3/M="/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="99">
   <si>
     <t>Modalidade</t>
   </si>
@@ -164,9 +175,6 @@
     <t>INTERATIVO</t>
   </si>
   <si>
-    <t>INFORMÁTICA BÁSICA</t>
-  </si>
-  <si>
     <t>LIVRE</t>
   </si>
   <si>
@@ -188,9 +196,6 @@
     <t>EXCEL</t>
   </si>
   <si>
-    <t>INFORMÁTICA MELHOR IDADE</t>
-  </si>
-  <si>
     <t>SECRETARIADO EXECUTIVO</t>
   </si>
   <si>
@@ -212,87 +217,21 @@
     <t>ASSISTENTE DE MARKETING</t>
   </si>
   <si>
-    <t>EXCEL AVANÇADO</t>
-  </si>
-  <si>
-    <t>EXCEL BÁSICO</t>
-  </si>
-  <si>
-    <t>EXCEL COMPLETO</t>
-  </si>
-  <si>
-    <t>FRONT END</t>
-  </si>
-  <si>
-    <t>INFORMATICA KIDS</t>
-  </si>
-  <si>
     <t>INFORMATICA PARA ADULTOS</t>
   </si>
   <si>
-    <t>INTELIGÊNCIA ARTIFICIAL</t>
-  </si>
-  <si>
-    <t>LOGÍSTICA</t>
-  </si>
-  <si>
     <t>MARKETING DIGITAL</t>
   </si>
   <si>
-    <t>MATEMÁTICA FINANCEIRA</t>
-  </si>
-  <si>
     <t>OPERADOR DE CAIXA</t>
   </si>
   <si>
-    <t>OPERADOR DE COMPUTADOR</t>
-  </si>
-  <si>
-    <t>OPERADOR DE COMPUTADOR AVANÇADO</t>
-  </si>
-  <si>
-    <t>PRODUTOR DE CONTEÚDO DIGITAL</t>
-  </si>
-  <si>
-    <t>ORATÓRIA</t>
-  </si>
-  <si>
-    <t>PACOTE OFFICE</t>
-  </si>
-  <si>
-    <t>POWER BI</t>
-  </si>
-  <si>
-    <t>PROGRAMADOR FULL STACK</t>
-  </si>
-  <si>
-    <t>RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>ROTINAS ADMINISTRATIVAS</t>
-  </si>
-  <si>
-    <t>TELEMARKETING</t>
-  </si>
-  <si>
-    <t>VENDAS</t>
-  </si>
-  <si>
-    <t>WEB DESIGNER</t>
-  </si>
-  <si>
-    <t>YOUTUBE</t>
-  </si>
-  <si>
     <t>ValorCheio</t>
   </si>
   <si>
     <t>Parcelas</t>
   </si>
   <si>
-    <t>INGLÊS</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -342,25 +281,67 @@
   </si>
   <si>
     <t>Diretora</t>
+  </si>
+  <si>
+    <t>ASSISTENTE DE RH</t>
+  </si>
+  <si>
+    <t>ASSISTENTE FINANCEIRO</t>
+  </si>
+  <si>
+    <t>AUTOCAD</t>
+  </si>
+  <si>
+    <t>CRIAÇÃO E EDIÇÃO DE VÍDEOS</t>
+  </si>
+  <si>
+    <t>DESENVOLVEDOR DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>DESIGNER GRÁFICO NA PRÁTICA</t>
+  </si>
+  <si>
+    <t>ESPECIALISTA EM ATENDIMENTO FARMACÊUTICO</t>
+  </si>
+  <si>
+    <t>FORMAÇÃO EM SERVIÇOS BANCÁRIOS</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>MINI GÊNIO DIGITAL</t>
+  </si>
+  <si>
+    <t>OPERADOR FINANCEIRO DIGITAL</t>
+  </si>
+  <si>
+    <t>PRODUÇÃO PARA YOUTUBE</t>
+  </si>
+  <si>
+    <t>PROFISSIONAL DO FUTURO – METAVERSO</t>
+  </si>
+  <si>
+    <t>PROGRAMADOR COMPLETO</t>
+  </si>
+  <si>
+    <t>PUBLICIDADE DIGITAL</t>
+  </si>
+  <si>
+    <t>SECRETARIADO EXECUTIVO FUTURO</t>
+  </si>
+  <si>
+    <t>TELEMARKETING E VENDAS</t>
+  </si>
+  <si>
+    <t>VENDAS E COMUNICAÇÃO DE ALTO IMPACTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +352,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,19 +411,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1006"/>
+  <dimension ref="A1:H981"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -685,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,16 +708,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -719,16 +725,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,13 +742,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -753,16 +759,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -770,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -788,16 +794,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -806,16 +812,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -824,16 +830,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,16 +847,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,16 +864,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,16 +881,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,16 +898,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,16 +915,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,16 +932,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,16 +949,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,16 +966,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -994,16 +1000,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,13 +1017,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
@@ -1028,16 +1034,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,16 +1051,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,169 +1068,169 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
+      <c r="B25" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
+      <c r="B26" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>45</v>
+      <c r="B27" t="s">
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>47</v>
+      <c r="B28" t="s">
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>47</v>
+      <c r="B29" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
+      <c r="B30" t="s">
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>48</v>
+      <c r="B31" t="s">
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>48</v>
+      <c r="B32" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
+      <c r="B33" t="s">
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,13 +1258,13 @@
         <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,64 +1275,64 @@
         <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>50</v>
+      <c r="B37" t="s">
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
+      <c r="B38" t="s">
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>50</v>
+      <c r="B39" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,16 +1340,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,16 +1357,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,373 +1374,373 @@
         <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>52</v>
+      <c r="B43" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>52</v>
+      <c r="B44" t="s">
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
+      <c r="B45" t="s">
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
+      <c r="B46" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
+      <c r="B47" t="s">
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>53</v>
+      <c r="B48" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>54</v>
+      <c r="B49" t="s">
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>54</v>
+      <c r="B50" t="s">
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
+      <c r="B51" t="s">
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>55</v>
+      <c r="B52" t="s">
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
+      <c r="B53" t="s">
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
+      <c r="B54" t="s">
+        <v>84</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>56</v>
+      <c r="B55" t="s">
+        <v>85</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>56</v>
+      <c r="B56" t="s">
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>56</v>
+      <c r="B57" t="s">
+        <v>85</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>57</v>
+      <c r="B58" t="s">
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
+      <c r="B59" t="s">
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>57</v>
+      <c r="B60" t="s">
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>58</v>
+      <c r="B61" t="s">
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>58</v>
+      <c r="B62" t="s">
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>58</v>
+      <c r="B63" t="s">
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,16 +1748,16 @@
         <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,16 +1765,16 @@
         <v>44</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1776,373 +1782,373 @@
         <v>44</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>60</v>
+      <c r="B67" t="s">
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>60</v>
+      <c r="B68" t="s">
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>60</v>
+      <c r="B69" t="s">
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>61</v>
+      <c r="B70" t="s">
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>62</v>
+      <c r="B71" t="s">
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>62</v>
+      <c r="B72" t="s">
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>62</v>
+      <c r="B73" t="s">
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>62</v>
+      <c r="B74" t="s">
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>63</v>
+      <c r="B75" t="s">
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>63</v>
+      <c r="B76" t="s">
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>63</v>
+      <c r="B77" t="s">
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>63</v>
+      <c r="B78" t="s">
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>64</v>
+      <c r="B79" t="s">
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>64</v>
+      <c r="B80" t="s">
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>64</v>
+      <c r="B81" t="s">
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>64</v>
+      <c r="B82" t="s">
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>65</v>
+      <c r="B83" t="s">
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>65</v>
+      <c r="B84" t="s">
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>65</v>
+      <c r="B85" t="s">
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>65</v>
+      <c r="B86" t="s">
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>66</v>
+      <c r="B87" t="s">
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2150,16 +2156,16 @@
         <v>44</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,16 +2173,16 @@
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,16 +2190,16 @@
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,16 +2207,16 @@
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,16 +2224,16 @@
         <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,1205 +2241,695 @@
         <v>44</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>67</v>
+      <c r="B94" t="s">
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>68</v>
+      <c r="B95" t="s">
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>68</v>
+      <c r="B96" t="s">
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>68</v>
+      <c r="B97" t="s">
+        <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>68</v>
+      <c r="B98" t="s">
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>69</v>
+      <c r="B99" t="s">
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>69</v>
+      <c r="B100" t="s">
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>69</v>
+      <c r="B101" t="s">
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>69</v>
+      <c r="B102" t="s">
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>70</v>
+      <c r="B103" t="s">
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>70</v>
+      <c r="B104" t="s">
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>70</v>
+      <c r="B105" t="s">
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>70</v>
+      <c r="B106" t="s">
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>71</v>
+      <c r="B107" t="s">
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>71</v>
+      <c r="B108" t="s">
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>71</v>
+      <c r="B109" t="s">
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>71</v>
+      <c r="B110" t="s">
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>72</v>
+      <c r="B111" t="s">
+        <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>72</v>
+      <c r="B112" t="s">
+        <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>72</v>
+      <c r="B113" t="s">
+        <v>95</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>72</v>
+      <c r="B114" t="s">
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>73</v>
+      <c r="B115" t="s">
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>73</v>
+      <c r="B116" t="s">
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>73</v>
+      <c r="B117" t="s">
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>73</v>
+      <c r="B118" t="s">
+        <v>96</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>74</v>
+      <c r="B119" t="s">
+        <v>96</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>74</v>
+      <c r="B120" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>74</v>
+      <c r="B121" t="s">
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>74</v>
+      <c r="B122" t="s">
+        <v>97</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>75</v>
+      <c r="B123" t="s">
+        <v>97</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>75</v>
+      <c r="B124" t="s">
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>75</v>
+      <c r="B125" t="s">
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>75</v>
+      <c r="B126" t="s">
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4239,31 +3735,6 @@
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4272,14 +3743,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1007"/>
+  <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,7 +3979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -4520,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -4534,7 +4007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -4548,7 +4021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -4562,7 +4035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -4576,7 +4049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -4590,7 +4063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -4604,7 +4077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -4618,1329 +4091,1651 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>87</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D26" s="6">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D27" s="6">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D28" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D29" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D30" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
+      <c r="C30" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D30" s="6">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D31" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>48</v>
+      <c r="C31" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D31" s="6">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D32" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D33" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D33" s="6">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D34" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D36" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>49</v>
+      <c r="C36" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D37" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2274.2857142857142</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D38" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2274.2857142857142</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D39" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="8">
+        <v>2274.2857142857142</v>
+      </c>
+      <c r="D39" s="6">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D41" s="6">
+        <v>12</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D40" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C42" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D42" s="6">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D41" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D42" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="8">
+        <v>4548.5714285714284</v>
+      </c>
+      <c r="D43" s="6">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="8">
+        <v>4548.5714285714284</v>
+      </c>
+      <c r="D44" s="6">
+        <v>16</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C45" s="8">
+        <v>4548.5714285714284</v>
+      </c>
+      <c r="D45" s="6">
+        <v>16</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="8">
+        <v>5970</v>
+      </c>
+      <c r="D46" s="6">
+        <v>21</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="2">
-        <v>3600</v>
-      </c>
-      <c r="D44" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C47" s="8">
+        <v>5970</v>
+      </c>
+      <c r="D47" s="6">
+        <v>21</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2">
-        <v>3600</v>
-      </c>
-      <c r="D45" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3600</v>
-      </c>
-      <c r="D46" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2">
-        <v>3600</v>
-      </c>
-      <c r="D47" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="8">
+        <v>5970</v>
+      </c>
+      <c r="D48" s="6">
+        <v>21</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D48" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D49" s="6">
+        <v>17</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D49" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D50" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
+      <c r="C50" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D50" s="6">
+        <v>17</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D51" s="6">
+        <v>17</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2558.5714285714289</v>
+      </c>
+      <c r="D52" s="6">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2558.5714285714289</v>
+      </c>
+      <c r="D53" s="6">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D51" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C54" s="8">
+        <v>2558.5714285714289</v>
+      </c>
+      <c r="D54" s="6">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D55" s="6">
+        <v>13</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D56" s="6">
+        <v>13</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D52" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C57" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D57" s="6">
+        <v>13</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D53" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D54" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D55" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1680</v>
-      </c>
-      <c r="D56" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1680</v>
-      </c>
-      <c r="D57" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1680</v>
-      </c>
-      <c r="D58" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
+      <c r="C58" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D58" s="6">
+        <v>19</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="2">
-        <v>1680</v>
-      </c>
-      <c r="D59" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>57</v>
+      <c r="C59" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D59" s="6">
+        <v>19</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>57</v>
+      <c r="C60" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D60" s="6">
+        <v>19</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D61" s="6">
+        <v>12</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D62" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>58</v>
+      <c r="C62" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D62" s="6">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D63" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C63" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D63" s="6">
+        <v>12</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D64" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="8">
+        <v>2274.2857142857142</v>
+      </c>
+      <c r="D64" s="6">
+        <v>8</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D65" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="8">
+        <v>2274.2857142857142</v>
+      </c>
+      <c r="D65" s="6">
+        <v>8</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D66" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>59</v>
+      <c r="C66" s="8">
+        <v>2274.2857142857142</v>
+      </c>
+      <c r="D66" s="6">
+        <v>8</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D67" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D67" s="6">
+        <v>19</v>
+      </c>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D68" s="6">
+        <v>19</v>
+      </c>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D69" s="6">
+        <v>19</v>
+      </c>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D70" s="6">
+        <v>19</v>
+      </c>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D71" s="6">
+        <v>19</v>
+      </c>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="8">
+        <v>5401.4285714285716</v>
+      </c>
+      <c r="D72" s="6">
+        <v>19</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D73" s="6">
+        <v>17</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D74" s="6">
+        <v>17</v>
+      </c>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D75" s="6">
+        <v>17</v>
+      </c>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="8">
+        <v>4264.2857142857147</v>
+      </c>
+      <c r="D76" s="6">
+        <v>15</v>
+      </c>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="8">
+        <v>4264.2857142857147</v>
+      </c>
+      <c r="D77" s="6">
+        <v>15</v>
+      </c>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="8">
+        <v>4264.2857142857147</v>
+      </c>
+      <c r="D78" s="6">
+        <v>15</v>
+      </c>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D79" s="6">
+        <v>17</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D80" s="6">
+        <v>17</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="8">
+        <v>4832.8571428571431</v>
+      </c>
+      <c r="D81" s="6">
+        <v>17</v>
+      </c>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="8">
+        <v>5970</v>
+      </c>
+      <c r="D82" s="6">
+        <v>21</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="8">
+        <v>5970</v>
+      </c>
+      <c r="D83" s="6">
+        <v>21</v>
+      </c>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="8">
+        <v>5970</v>
+      </c>
+      <c r="D84" s="6">
+        <v>21</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="8">
+        <v>7391.4285714285716</v>
+      </c>
+      <c r="D85" s="6">
+        <v>26</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="8">
+        <v>7391.4285714285716</v>
+      </c>
+      <c r="D86" s="6">
+        <v>26</v>
+      </c>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="8">
+        <v>7391.4285714285716</v>
+      </c>
+      <c r="D87" s="6">
+        <v>26</v>
+      </c>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D88" s="6">
+        <v>11</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D89" s="6">
+        <v>11</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D90" s="6">
+        <v>11</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D68" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="C91" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D91" s="6">
+        <v>10</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D69" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="C92" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D92" s="6">
+        <v>10</v>
+      </c>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D70" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D71" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="2">
-        <v>2700</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="B93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="8">
+        <v>2842.8571428571431</v>
+      </c>
+      <c r="D93" s="6">
+        <v>10</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="8">
+        <v>4264.2857142857147</v>
+      </c>
+      <c r="D94" s="6">
+        <v>15</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="8">
+        <v>4264.2857142857147</v>
+      </c>
+      <c r="D95" s="6">
+        <v>15</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="8">
+        <v>4264.2857142857147</v>
+      </c>
+      <c r="D96" s="6">
+        <v>15</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D97" s="6">
+        <v>12</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D98" s="6">
+        <v>12</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="8">
+        <v>3411.4285714285716</v>
+      </c>
+      <c r="D99" s="6">
+        <v>12</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2558.5714285714289</v>
+      </c>
+      <c r="D100" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="2">
-        <v>2700</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="8">
+        <v>2558.5714285714289</v>
+      </c>
+      <c r="D101" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="2">
-        <v>2700</v>
-      </c>
-      <c r="D74" s="2">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="8">
+        <v>2558.5714285714289</v>
+      </c>
+      <c r="D102" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="2">
-        <v>2700</v>
-      </c>
-      <c r="D75" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D76" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D77" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D78" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D79" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D80" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D81" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D82" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D83" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D84" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D85" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D86" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D87" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D88" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D89" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D90" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D91" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D92" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D93" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D94" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D95" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="2">
-        <v>840</v>
-      </c>
-      <c r="D96" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="2">
-        <v>840</v>
-      </c>
-      <c r="D97" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="2">
-        <v>840</v>
-      </c>
-      <c r="D98" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="2">
-        <v>840</v>
-      </c>
-      <c r="D99" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D100" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D101" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D102" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="2">
-        <v>2240</v>
-      </c>
-      <c r="D103" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="2">
-        <v>4760</v>
-      </c>
-      <c r="D104" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="2">
-        <v>4760</v>
-      </c>
-      <c r="D105" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="2">
-        <v>4760</v>
-      </c>
-      <c r="D106" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="2">
-        <v>4760</v>
-      </c>
-      <c r="D107" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="2">
-        <v>5600</v>
-      </c>
-      <c r="D108" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="2">
-        <v>5600</v>
-      </c>
-      <c r="D109" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="2">
-        <v>5600</v>
-      </c>
-      <c r="D110" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="2">
-        <v>5600</v>
-      </c>
-      <c r="D111" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="2">
-        <v>3640</v>
-      </c>
-      <c r="D112" s="2">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D103" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="2">
-        <v>3640</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D104" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="2">
-        <v>3640</v>
-      </c>
-      <c r="D114" s="2">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D105" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="2">
-        <v>3640</v>
-      </c>
-      <c r="D115" s="2">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="8">
+        <v>4548.5714285714284</v>
+      </c>
+      <c r="D106" s="6">
+        <v>16</v>
+      </c>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="8">
+        <v>4548.5714285714284</v>
+      </c>
+      <c r="D107" s="6">
+        <v>16</v>
+      </c>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="8">
+        <v>4548.5714285714284</v>
+      </c>
+      <c r="D108" s="6">
+        <v>16</v>
+      </c>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D109" s="6">
+        <v>11</v>
+      </c>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D110" s="6">
+        <v>11</v>
+      </c>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D111" s="6">
+        <v>11</v>
+      </c>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D112" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D116" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D117" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D118" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D119" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="2">
-        <v>3080</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D113" s="6">
+        <v>13</v>
+      </c>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="8">
+        <v>3695.7142857142858</v>
+      </c>
+      <c r="D114" s="6">
+        <v>13</v>
+      </c>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="8">
+        <v>7107.1428571428578</v>
+      </c>
+      <c r="D115" s="6">
+        <v>25</v>
+      </c>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="8">
+        <v>7107.1428571428578</v>
+      </c>
+      <c r="D116" s="6">
+        <v>25</v>
+      </c>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="8">
+        <v>7107.1428571428578</v>
+      </c>
+      <c r="D117" s="6">
+        <v>25</v>
+      </c>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D118" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="2">
-        <v>3080</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D119" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="2">
-        <v>3080</v>
-      </c>
-      <c r="D122" s="2">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="8">
+        <v>3127.1428571428573</v>
+      </c>
+      <c r="D120" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="2">
-        <v>3080</v>
-      </c>
-      <c r="D123" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D124" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D125" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D126" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D127" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D128" s="2">
-        <v>18</v>
-      </c>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D121" s="6">
+        <v>14</v>
+      </c>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D122" s="6">
+        <v>14</v>
+      </c>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D123" s="6">
+        <v>14</v>
+      </c>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D124" s="6">
+        <v>14</v>
+      </c>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D125" s="6">
+        <v>14</v>
+      </c>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D126" s="6">
+        <v>14</v>
+      </c>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
     </row>
     <row r="129" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D129" s="2">
-        <v>18</v>
-      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D130" s="2">
-        <v>18</v>
-      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="2">
-        <v>5400</v>
-      </c>
-      <c r="D131" s="2">
-        <v>18</v>
-      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D132" s="2">
-        <v>5</v>
-      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D133" s="2">
-        <v>5</v>
-      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D134" s="2">
-        <v>5</v>
-      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D135" s="2">
-        <v>5</v>
-      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="2">
-        <v>3360</v>
-      </c>
-      <c r="D136" s="2">
-        <v>12</v>
-      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="2">
-        <v>3360</v>
-      </c>
-      <c r="D137" s="2">
-        <v>12</v>
-      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="2">
-        <v>3360</v>
-      </c>
-      <c r="D138" s="2">
-        <v>12</v>
-      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="2">
-        <v>3360</v>
-      </c>
-      <c r="D139" s="2">
-        <v>12</v>
-      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D140" s="2">
-        <v>4</v>
-      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D141" s="2">
-        <v>4</v>
-      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D142" s="2">
-        <v>4</v>
-      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D143" s="2">
-        <v>4</v>
-      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D144" s="2">
-        <v>4</v>
-      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D145" s="2">
-        <v>4</v>
-      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D146" s="2">
-        <v>4</v>
-      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D147" s="2">
-        <v>4</v>
-      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D148" s="2">
-        <v>17</v>
-      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D149" s="2">
-        <v>17</v>
-      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D150" s="2">
-        <v>17</v>
-      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="2">
-        <v>5100</v>
-      </c>
-      <c r="D151" s="2">
-        <v>17</v>
-      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="2">
-        <v>2520</v>
-      </c>
-      <c r="D152" s="2">
-        <v>9</v>
-      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="2">
-        <v>2520</v>
-      </c>
-      <c r="D153" s="2">
-        <v>9</v>
-      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
     </row>
     <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="2">
-        <v>2520</v>
-      </c>
-      <c r="D154" s="2">
-        <v>9</v>
-      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
     </row>
     <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="2">
-        <v>2520</v>
-      </c>
-      <c r="D155" s="2">
-        <v>9</v>
-      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6804,7 +6599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6818,72 +6613,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
         <v>7704</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5DEACA-1F75-4554-8B72-6FC5B01865B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDE8CC-8632-4C69-9724-D0326402600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -341,11 +341,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,22 +418,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1044,7 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1053,14 +1061,14 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
+      <c r="C23" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
+      <c r="E23" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3871,8 +3879,8 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>6177.6</v>

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDE8CC-8632-4C69-9724-D0326402600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37491E77-53C1-4E6B-A359-DC15ED96A32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>QUARTA-FEIRA</t>
   </si>
   <si>
-    <t>CONFEITARIA PROFISSIONAL</t>
-  </si>
-  <si>
     <t>NOITE QUARTA</t>
   </si>
   <si>
@@ -335,17 +332,27 @@
   </si>
   <si>
     <t>VENDAS E COMUNICAÇÃO DE ALTO IMPACTO</t>
+  </si>
+  <si>
+    <t>CONFEITARIA PROFISSIONAL + PANIFICAÇÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,22 +425,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H981"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -699,16 +707,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,16 +724,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,16 +741,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,16 +758,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,16 +775,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,16 +792,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -802,16 +810,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -819,14 +827,14 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -837,51 +845,51 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+      <c r="B10" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,13 +897,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -906,16 +914,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,16 +931,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,16 +948,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1008,13 +1016,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1025,16 +1033,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,13 +1050,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -1059,16 +1067,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,1736 +1098,1736 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3753,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3771,10 +3779,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,11 +3800,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>6286.2</v>
@@ -3806,11 +3814,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>6286.2</v>
@@ -3820,11 +3828,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>6286.2</v>
@@ -3834,11 +3842,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
+      <c r="A6" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>6286.2</v>
@@ -3849,7 +3857,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -3863,10 +3871,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>6177.6</v>
@@ -3877,10 +3885,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>6177.6</v>
@@ -3891,10 +3899,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>3844.63</v>
@@ -3905,10 +3913,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>3844.63</v>
@@ -3919,7 +3927,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -3933,7 +3941,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -3947,10 +3955,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>3399</v>
@@ -3961,7 +3969,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -3975,7 +3983,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -3989,10 +3997,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>4980.46</v>
@@ -4003,7 +4011,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -4017,10 +4025,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>3838.63</v>
@@ -4031,10 +4039,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
         <v>3838.63</v>
@@ -4045,10 +4053,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
         <v>3838.63</v>
@@ -4059,10 +4067,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
         <v>3838.63</v>
@@ -4073,10 +4081,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>3838.63</v>
@@ -4087,10 +4095,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>3838.63</v>
@@ -4101,7 +4109,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -4116,10 +4124,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="8">
         <v>3980.0000000000005</v>
@@ -4131,10 +4139,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="8">
         <v>3980.0000000000005</v>
@@ -4146,10 +4154,10 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="8">
         <v>2842.8571428571431</v>
@@ -4161,7 +4169,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -4176,10 +4184,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="8">
         <v>2842.8571428571431</v>
@@ -4191,10 +4199,10 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="8">
         <v>3695.7142857142858</v>
@@ -4206,10 +4214,10 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="8">
         <v>3695.7142857142858</v>
@@ -4221,7 +4229,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
@@ -4236,7 +4244,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
@@ -4251,10 +4259,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="8">
         <v>2842.8571428571431</v>
@@ -4266,10 +4274,10 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="8">
         <v>2842.8571428571431</v>
@@ -4281,7 +4289,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
@@ -4296,10 +4304,10 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="8">
         <v>2274.2857142857142</v>
@@ -4311,10 +4319,10 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="8">
         <v>2274.2857142857142</v>
@@ -4326,10 +4334,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="8">
         <v>3411.4285714285716</v>
@@ -4341,7 +4349,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
@@ -4356,10 +4364,10 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="8">
         <v>3411.4285714285716</v>
@@ -4371,10 +4379,10 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="8">
         <v>4548.5714285714284</v>
@@ -4386,7 +4394,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>10</v>
@@ -4401,10 +4409,10 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="8">
         <v>4548.5714285714284</v>
@@ -4416,7 +4424,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>10</v>
@@ -4431,10 +4439,10 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="8">
         <v>5970</v>
@@ -4446,10 +4454,10 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="8">
         <v>5970</v>
@@ -4461,10 +4469,10 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="8">
         <v>4832.8571428571431</v>
@@ -4476,10 +4484,10 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="8">
         <v>4832.8571428571431</v>
@@ -4491,7 +4499,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>10</v>
@@ -4506,7 +4514,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
@@ -4521,10 +4529,10 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="8">
         <v>2558.5714285714289</v>
@@ -4536,10 +4544,10 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="8">
         <v>2558.5714285714289</v>
@@ -4551,7 +4559,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>10</v>
@@ -4566,10 +4574,10 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="8">
         <v>3695.7142857142858</v>
@@ -4581,10 +4589,10 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="8">
         <v>3695.7142857142858</v>
@@ -4596,10 +4604,10 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="8">
         <v>5401.4285714285716</v>
@@ -4611,7 +4619,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>10</v>
@@ -4626,10 +4634,10 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="8">
         <v>5401.4285714285716</v>
@@ -4641,10 +4649,10 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" s="8">
         <v>3411.4285714285716</v>
@@ -4656,10 +4664,10 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="8">
         <v>3411.4285714285716</v>
@@ -4671,7 +4679,7 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>10</v>
@@ -4686,10 +4694,10 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="8">
         <v>2274.2857142857142</v>
@@ -4701,10 +4709,10 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="8">
         <v>2274.2857142857142</v>
@@ -4716,7 +4724,7 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>10</v>
@@ -4731,10 +4739,10 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="8">
         <v>5401.4285714285716</v>
@@ -4746,10 +4754,10 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="8">
         <v>5401.4285714285716</v>
@@ -4761,7 +4769,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>10</v>
@@ -4776,10 +4784,10 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="8">
         <v>5401.4285714285716</v>
@@ -4791,10 +4799,10 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8">
         <v>5401.4285714285716</v>
@@ -4806,7 +4814,7 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
@@ -4821,10 +4829,10 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="8">
         <v>4832.8571428571431</v>
@@ -4836,10 +4844,10 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="8">
         <v>4832.8571428571431</v>
@@ -4851,7 +4859,7 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -4866,10 +4874,10 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="8">
         <v>4264.2857142857147</v>
@@ -4881,10 +4889,10 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="8">
         <v>4264.2857142857147</v>
@@ -4896,7 +4904,7 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>10</v>
@@ -4911,10 +4919,10 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" s="8">
         <v>4832.8571428571431</v>
@@ -4926,10 +4934,10 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="8">
         <v>4832.8571428571431</v>
@@ -4941,7 +4949,7 @@
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>10</v>
@@ -4956,10 +4964,10 @@
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="8">
         <v>5970</v>
@@ -4971,10 +4979,10 @@
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="8">
         <v>5970</v>
@@ -4986,7 +4994,7 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>10</v>
@@ -5001,10 +5009,10 @@
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="8">
         <v>7391.4285714285716</v>
@@ -5016,10 +5024,10 @@
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="8">
         <v>7391.4285714285716</v>
@@ -5031,7 +5039,7 @@
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
@@ -5046,10 +5054,10 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="8">
         <v>3127.1428571428573</v>
@@ -5061,10 +5069,10 @@
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" s="8">
         <v>3127.1428571428573</v>
@@ -5076,7 +5084,7 @@
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>10</v>
@@ -5091,10 +5099,10 @@
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C91" s="8">
         <v>2842.8571428571431</v>
@@ -5106,10 +5114,10 @@
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" s="8">
         <v>2842.8571428571431</v>
@@ -5121,7 +5129,7 @@
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
@@ -5136,10 +5144,10 @@
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" s="8">
         <v>4264.2857142857147</v>
@@ -5151,10 +5159,10 @@
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="8">
         <v>4264.2857142857147</v>
@@ -5166,7 +5174,7 @@
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>10</v>
@@ -5181,10 +5189,10 @@
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="8">
         <v>3411.4285714285716</v>
@@ -5196,10 +5204,10 @@
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" s="8">
         <v>3411.4285714285716</v>
@@ -5211,7 +5219,7 @@
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>10</v>
@@ -5226,10 +5234,10 @@
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="8">
         <v>2558.5714285714289</v>
@@ -5241,10 +5249,10 @@
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C101" s="8">
         <v>2558.5714285714289</v>
@@ -5256,7 +5264,7 @@
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>10</v>
@@ -5271,10 +5279,10 @@
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" s="8">
         <v>3695.7142857142858</v>
@@ -5286,10 +5294,10 @@
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C104" s="8">
         <v>3695.7142857142858</v>
@@ -5301,7 +5309,7 @@
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>10</v>
@@ -5316,10 +5324,10 @@
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" s="8">
         <v>4548.5714285714284</v>
@@ -5331,10 +5339,10 @@
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" s="8">
         <v>4548.5714285714284</v>
@@ -5346,7 +5354,7 @@
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>10</v>
@@ -5361,10 +5369,10 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C109" s="8">
         <v>3127.1428571428573</v>
@@ -5376,10 +5384,10 @@
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110" s="8">
         <v>3127.1428571428573</v>
@@ -5391,7 +5399,7 @@
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>10</v>
@@ -5406,10 +5414,10 @@
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" s="8">
         <v>3695.7142857142858</v>
@@ -5421,10 +5429,10 @@
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" s="8">
         <v>3695.7142857142858</v>
@@ -5436,7 +5444,7 @@
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
@@ -5451,10 +5459,10 @@
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C115" s="8">
         <v>7107.1428571428578</v>
@@ -5466,10 +5474,10 @@
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116" s="8">
         <v>7107.1428571428578</v>
@@ -5481,7 +5489,7 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>10</v>
@@ -5496,10 +5504,10 @@
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C118" s="8">
         <v>3127.1428571428573</v>
@@ -5511,10 +5519,10 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="8">
         <v>3127.1428571428573</v>
@@ -5526,7 +5534,7 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>10</v>
@@ -5541,10 +5549,10 @@
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" s="8">
         <v>3980.0000000000005</v>
@@ -5556,10 +5564,10 @@
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" s="8">
         <v>3980.0000000000005</v>
@@ -5571,7 +5579,7 @@
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>10</v>
@@ -5586,10 +5594,10 @@
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C124" s="8">
         <v>3980.0000000000005</v>
@@ -5601,10 +5609,10 @@
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" s="8">
         <v>3980.0000000000005</v>
@@ -5616,7 +5624,7 @@
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>10</v>
@@ -6621,72 +6629,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4">
         <v>7704</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37491E77-53C1-4E6B-A359-DC15ED96A32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656533A4-C202-4564-A3FA-BEE8602BBD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="100">
   <si>
     <t>Modalidade</t>
   </si>
@@ -335,17 +335,27 @@
   </si>
   <si>
     <t>CONFEITARIA PROFISSIONAL + PANIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>DEPILAÇÃO PROFISSIONAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,6 +399,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,22 +441,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -658,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H981"/>
+  <dimension ref="A1:H982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1083,34 +1100,34 @@
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1138,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>44</v>
@@ -1130,7 +1147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
@@ -1138,7 +1155,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1152,10 +1169,10 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>44</v>
@@ -1172,7 +1189,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>44</v>
@@ -1189,7 +1206,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>44</v>
@@ -1203,7 +1220,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>33</v>
@@ -1223,7 +1240,7 @@
         <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
@@ -1240,7 +1257,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
@@ -1253,8 +1270,8 @@
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
+      <c r="B34" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
@@ -1274,7 +1291,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -1291,7 +1308,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1304,11 +1321,11 @@
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>82</v>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
@@ -1325,7 +1342,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
@@ -1342,7 +1359,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>44</v>
@@ -1355,8 +1372,8 @@
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
@@ -1376,7 +1393,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>44</v>
@@ -1393,7 +1410,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -1406,11 +1423,11 @@
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>46</v>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -1427,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>44</v>
@@ -1444,7 +1461,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>44</v>
@@ -1458,10 +1475,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>44</v>
@@ -1478,7 +1495,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>44</v>
@@ -1495,7 +1512,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>44</v>
@@ -1509,10 +1526,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>44</v>
@@ -1529,7 +1546,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>44</v>
@@ -1546,7 +1563,7 @@
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>44</v>
@@ -1560,7 +1577,7 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -1580,7 +1597,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>44</v>
@@ -1597,7 +1614,7 @@
         <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>44</v>
@@ -1611,10 +1628,10 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>44</v>
@@ -1631,7 +1648,7 @@
         <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>44</v>
@@ -1648,7 +1665,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>44</v>
@@ -1662,10 +1679,10 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>44</v>
@@ -1682,7 +1699,7 @@
         <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>44</v>
@@ -1699,7 +1716,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>44</v>
@@ -1713,7 +1730,7 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
@@ -1733,7 +1750,7 @@
         <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>44</v>
@@ -1750,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>44</v>
@@ -1763,11 +1780,11 @@
       <c r="A64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>50</v>
+      <c r="B64" t="s">
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>44</v>
@@ -1784,7 +1801,7 @@
         <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>44</v>
@@ -1801,7 +1818,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>44</v>
@@ -1814,11 +1831,11 @@
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B67" t="s">
-        <v>87</v>
+      <c r="B67" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>44</v>
@@ -1835,7 +1852,7 @@
         <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>44</v>
@@ -1852,7 +1869,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>44</v>
@@ -1866,10 +1883,10 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>44</v>
@@ -1886,7 +1903,7 @@
         <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>44</v>
@@ -1903,7 +1920,7 @@
         <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>44</v>
@@ -1917,10 +1934,10 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>44</v>
@@ -1937,7 +1954,7 @@
         <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>44</v>
@@ -1954,7 +1971,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>44</v>
@@ -1968,10 +1985,10 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
@@ -1988,7 +2005,7 @@
         <v>88</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>44</v>
@@ -2005,7 +2022,7 @@
         <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>44</v>
@@ -2019,10 +2036,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>44</v>
@@ -2039,7 +2056,7 @@
         <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>44</v>
@@ -2056,7 +2073,7 @@
         <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>44</v>
@@ -2070,10 +2087,10 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>44</v>
@@ -2090,7 +2107,7 @@
         <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>44</v>
@@ -2107,7 +2124,7 @@
         <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>44</v>
@@ -2121,10 +2138,10 @@
         <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>44</v>
@@ -2141,7 +2158,7 @@
         <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>44</v>
@@ -2158,7 +2175,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>44</v>
@@ -2171,11 +2188,11 @@
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>58</v>
+      <c r="B88" t="s">
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>44</v>
@@ -2192,7 +2209,7 @@
         <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>44</v>
@@ -2209,7 +2226,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>44</v>
@@ -2223,10 +2240,10 @@
         <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>44</v>
@@ -2243,7 +2260,7 @@
         <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>44</v>
@@ -2260,7 +2277,7 @@
         <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>44</v>
@@ -2273,11 +2290,11 @@
       <c r="A94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B94" t="s">
-        <v>89</v>
+      <c r="B94" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>44</v>
@@ -2294,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>44</v>
@@ -2311,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>44</v>
@@ -2325,10 +2342,10 @@
         <v>43</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>44</v>
@@ -2345,7 +2362,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>44</v>
@@ -2362,7 +2379,7 @@
         <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>44</v>
@@ -2376,10 +2393,10 @@
         <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>44</v>
@@ -2396,7 +2413,7 @@
         <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>44</v>
@@ -2413,7 +2430,7 @@
         <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>44</v>
@@ -2427,10 +2444,10 @@
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>44</v>
@@ -2447,7 +2464,7 @@
         <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>44</v>
@@ -2464,7 +2481,7 @@
         <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>44</v>
@@ -2478,10 +2495,10 @@
         <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>44</v>
@@ -2498,7 +2515,7 @@
         <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>44</v>
@@ -2515,7 +2532,7 @@
         <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>44</v>
@@ -2529,10 +2546,10 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>44</v>
@@ -2549,7 +2566,7 @@
         <v>93</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>44</v>
@@ -2566,7 +2583,7 @@
         <v>93</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>44</v>
@@ -2580,10 +2597,10 @@
         <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>44</v>
@@ -2600,7 +2617,7 @@
         <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>44</v>
@@ -2617,7 +2634,7 @@
         <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>44</v>
@@ -2631,10 +2648,10 @@
         <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>44</v>
@@ -2651,7 +2668,7 @@
         <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>44</v>
@@ -2668,7 +2685,7 @@
         <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>44</v>
@@ -2682,10 +2699,10 @@
         <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>44</v>
@@ -2702,7 +2719,7 @@
         <v>95</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>44</v>
@@ -2719,7 +2736,7 @@
         <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>44</v>
@@ -2733,10 +2750,10 @@
         <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>44</v>
@@ -2753,7 +2770,7 @@
         <v>96</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>44</v>
@@ -2770,7 +2787,7 @@
         <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>44</v>
@@ -2784,10 +2801,10 @@
         <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>44</v>
@@ -2804,7 +2821,7 @@
         <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>44</v>
@@ -2821,7 +2838,7 @@
         <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>44</v>
@@ -2831,11 +2848,21 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
@@ -2907,7 +2934,13 @@
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3784,9 @@
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -3759,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1007"/>
+  <dimension ref="A1:E1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3898,17 +3933,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3844.63</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3184.62</v>
+      </c>
+      <c r="D10" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3916,7 +3951,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>3844.63</v>
@@ -3927,44 +3962,44 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>3589.14</v>
+        <v>3844.63</v>
       </c>
       <c r="D12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>4017.56</v>
+        <v>3589.14</v>
       </c>
       <c r="D13" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>3399</v>
+        <v>4017.56</v>
       </c>
       <c r="D14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3972,7 +4007,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>3399</v>
@@ -3983,13 +4018,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>3645.71</v>
+        <v>3399</v>
       </c>
       <c r="D16" s="2">
         <v>11</v>
@@ -3997,16 +4032,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>4980.46</v>
+        <v>3645.71</v>
       </c>
       <c r="D17" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>4980.46</v>
@@ -4025,16 +4060,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>3838.63</v>
+        <v>4980.46</v>
       </c>
       <c r="D19" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>3838.63</v>
@@ -4056,7 +4091,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>3838.63</v>
@@ -4070,7 +4105,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
         <v>3838.63</v>
@@ -4084,7 +4119,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
         <v>3838.63</v>
@@ -4098,7 +4133,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>3838.63</v>
@@ -4108,26 +4143,25 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
+      <c r="A25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="8">
-        <v>3980.0000000000005</v>
-      </c>
-      <c r="D25" s="6">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3838.63</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" s="8">
         <v>3980.0000000000005</v>
@@ -4142,7 +4176,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C27" s="8">
         <v>3980.0000000000005</v>
@@ -4152,18 +4186,18 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8">
-        <v>2842.8571428571431</v>
+        <v>3980.0000000000005</v>
       </c>
       <c r="D28" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -4172,7 +4206,7 @@
         <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="8">
         <v>2842.8571428571431</v>
@@ -4187,7 +4221,7 @@
         <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C30" s="8">
         <v>2842.8571428571431</v>
@@ -4199,16 +4233,16 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="8">
-        <v>3695.7142857142858</v>
+        <v>2842.8571428571431</v>
       </c>
       <c r="D31" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -4217,7 +4251,7 @@
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C32" s="8">
         <v>3695.7142857142858</v>
@@ -4232,7 +4266,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" s="8">
         <v>3695.7142857142858</v>
@@ -4243,17 +4277,17 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
+      <c r="A34" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="8">
-        <v>2842.8571428571431</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D34" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -4262,7 +4296,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" s="8">
         <v>2842.8571428571431</v>
@@ -4277,7 +4311,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C36" s="8">
         <v>2842.8571428571431</v>
@@ -4288,17 +4322,17 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>82</v>
+      <c r="A37" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8">
-        <v>2274.2857142857142</v>
+        <v>2842.8571428571431</v>
       </c>
       <c r="D37" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -4307,7 +4341,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8">
         <v>2274.2857142857142</v>
@@ -4322,7 +4356,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C39" s="8">
         <v>2274.2857142857142</v>
@@ -4333,17 +4367,17 @@
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>52</v>
+      <c r="A40" t="s">
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="8">
-        <v>3411.4285714285716</v>
+        <v>2274.2857142857142</v>
       </c>
       <c r="D40" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -4352,7 +4386,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" s="8">
         <v>3411.4285714285716</v>
@@ -4367,7 +4401,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C42" s="8">
         <v>3411.4285714285716</v>
@@ -4378,17 +4412,17 @@
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
+      <c r="A43" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C43" s="8">
-        <v>4548.5714285714284</v>
+        <v>3411.4285714285716</v>
       </c>
       <c r="D43" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="7"/>
     </row>
@@ -4397,7 +4431,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C44" s="8">
         <v>4548.5714285714284</v>
@@ -4412,7 +4446,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C45" s="8">
         <v>4548.5714285714284</v>
@@ -4424,16 +4458,16 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C46" s="8">
-        <v>5970</v>
+        <v>4548.5714285714284</v>
       </c>
       <c r="D46" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7"/>
     </row>
@@ -4442,7 +4476,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C47" s="8">
         <v>5970</v>
@@ -4457,7 +4491,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C48" s="8">
         <v>5970</v>
@@ -4469,16 +4503,16 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C49" s="8">
-        <v>4832.8571428571431</v>
+        <v>5970</v>
       </c>
       <c r="D49" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -4487,7 +4521,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C50" s="8">
         <v>4832.8571428571431</v>
@@ -4502,7 +4536,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" s="8">
         <v>4832.8571428571431</v>
@@ -4514,16 +4548,16 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="8">
-        <v>2558.5714285714289</v>
+        <v>4832.8571428571431</v>
       </c>
       <c r="D52" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -4532,7 +4566,7 @@
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8">
         <v>2558.5714285714289</v>
@@ -4547,7 +4581,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C54" s="8">
         <v>2558.5714285714289</v>
@@ -4559,16 +4593,16 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C55" s="8">
-        <v>3695.7142857142858</v>
+        <v>2558.5714285714289</v>
       </c>
       <c r="D55" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E55" s="7"/>
     </row>
@@ -4577,7 +4611,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56" s="8">
         <v>3695.7142857142858</v>
@@ -4592,7 +4626,7 @@
         <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C57" s="8">
         <v>3695.7142857142858</v>
@@ -4604,16 +4638,16 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C58" s="8">
-        <v>5401.4285714285716</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D58" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="7"/>
     </row>
@@ -4622,7 +4656,7 @@
         <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" s="8">
         <v>5401.4285714285716</v>
@@ -4637,7 +4671,7 @@
         <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C60" s="8">
         <v>5401.4285714285716</v>
@@ -4649,16 +4683,16 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="8">
-        <v>3411.4285714285716</v>
+        <v>5401.4285714285716</v>
       </c>
       <c r="D61" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E61" s="7"/>
     </row>
@@ -4667,7 +4701,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C62" s="8">
         <v>3411.4285714285716</v>
@@ -4682,7 +4716,7 @@
         <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C63" s="8">
         <v>3411.4285714285716</v>
@@ -4693,17 +4727,17 @@
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>50</v>
+      <c r="A64" t="s">
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C64" s="8">
-        <v>2274.2857142857142</v>
+        <v>3411.4285714285716</v>
       </c>
       <c r="D64" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -4712,7 +4746,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C65" s="8">
         <v>2274.2857142857142</v>
@@ -4727,7 +4761,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" s="8">
         <v>2274.2857142857142</v>
@@ -4738,17 +4772,17 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>87</v>
+      <c r="A67" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C67" s="8">
-        <v>5401.4285714285716</v>
+        <v>2274.2857142857142</v>
       </c>
       <c r="D67" s="6">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E67" s="7"/>
     </row>
@@ -4757,7 +4791,7 @@
         <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C68" s="8">
         <v>5401.4285714285716</v>
@@ -4772,7 +4806,7 @@
         <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C69" s="8">
         <v>5401.4285714285716</v>
@@ -4784,10 +4818,10 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C70" s="8">
         <v>5401.4285714285716</v>
@@ -4802,7 +4836,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C71" s="8">
         <v>5401.4285714285716</v>
@@ -4817,7 +4851,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C72" s="8">
         <v>5401.4285714285716</v>
@@ -4829,16 +4863,16 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C73" s="8">
-        <v>4832.8571428571431</v>
+        <v>5401.4285714285716</v>
       </c>
       <c r="D73" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E73" s="7"/>
     </row>
@@ -4847,7 +4881,7 @@
         <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C74" s="8">
         <v>4832.8571428571431</v>
@@ -4862,7 +4896,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C75" s="8">
         <v>4832.8571428571431</v>
@@ -4874,16 +4908,16 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C76" s="8">
-        <v>4264.2857142857147</v>
+        <v>4832.8571428571431</v>
       </c>
       <c r="D76" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -4892,7 +4926,7 @@
         <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C77" s="8">
         <v>4264.2857142857147</v>
@@ -4907,7 +4941,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C78" s="8">
         <v>4264.2857142857147</v>
@@ -4919,16 +4953,16 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C79" s="8">
-        <v>4832.8571428571431</v>
+        <v>4264.2857142857147</v>
       </c>
       <c r="D79" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" s="7"/>
     </row>
@@ -4937,7 +4971,7 @@
         <v>45</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C80" s="8">
         <v>4832.8571428571431</v>
@@ -4952,7 +4986,7 @@
         <v>45</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C81" s="8">
         <v>4832.8571428571431</v>
@@ -4964,16 +4998,16 @@
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C82" s="8">
-        <v>5970</v>
+        <v>4832.8571428571431</v>
       </c>
       <c r="D82" s="6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E82" s="7"/>
     </row>
@@ -4982,7 +5016,7 @@
         <v>54</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C83" s="8">
         <v>5970</v>
@@ -4997,7 +5031,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C84" s="8">
         <v>5970</v>
@@ -5009,16 +5043,16 @@
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C85" s="8">
-        <v>7391.4285714285716</v>
+        <v>5970</v>
       </c>
       <c r="D85" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E85" s="7"/>
     </row>
@@ -5027,7 +5061,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C86" s="8">
         <v>7391.4285714285716</v>
@@ -5042,7 +5076,7 @@
         <v>55</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C87" s="8">
         <v>7391.4285714285716</v>
@@ -5053,17 +5087,17 @@
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>58</v>
+      <c r="A88" t="s">
+        <v>55</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C88" s="8">
-        <v>3127.1428571428573</v>
+        <v>7391.4285714285716</v>
       </c>
       <c r="D88" s="6">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E88" s="7"/>
     </row>
@@ -5072,7 +5106,7 @@
         <v>58</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C89" s="8">
         <v>3127.1428571428573</v>
@@ -5087,7 +5121,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C90" s="8">
         <v>3127.1428571428573</v>
@@ -5099,16 +5133,16 @@
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C91" s="8">
-        <v>2842.8571428571431</v>
+        <v>3127.1428571428573</v>
       </c>
       <c r="D91" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" s="7"/>
     </row>
@@ -5117,7 +5151,7 @@
         <v>59</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C92" s="8">
         <v>2842.8571428571431</v>
@@ -5132,7 +5166,7 @@
         <v>59</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C93" s="8">
         <v>2842.8571428571431</v>
@@ -5143,17 +5177,17 @@
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>89</v>
+      <c r="A94" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C94" s="8">
-        <v>4264.2857142857147</v>
+        <v>2842.8571428571431</v>
       </c>
       <c r="D94" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E94" s="7"/>
     </row>
@@ -5162,7 +5196,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C95" s="8">
         <v>4264.2857142857147</v>
@@ -5177,7 +5211,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C96" s="8">
         <v>4264.2857142857147</v>
@@ -5189,16 +5223,16 @@
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C97" s="8">
-        <v>3411.4285714285716</v>
+        <v>4264.2857142857147</v>
       </c>
       <c r="D97" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E97" s="7"/>
     </row>
@@ -5207,7 +5241,7 @@
         <v>60</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C98" s="8">
         <v>3411.4285714285716</v>
@@ -5222,7 +5256,7 @@
         <v>60</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C99" s="8">
         <v>3411.4285714285716</v>
@@ -5234,16 +5268,16 @@
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C100" s="8">
-        <v>2558.5714285714289</v>
+        <v>3411.4285714285716</v>
       </c>
       <c r="D100" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E100" s="7"/>
     </row>
@@ -5252,7 +5286,7 @@
         <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C101" s="8">
         <v>2558.5714285714289</v>
@@ -5267,7 +5301,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C102" s="8">
         <v>2558.5714285714289</v>
@@ -5279,16 +5313,16 @@
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C103" s="8">
-        <v>3695.7142857142858</v>
+        <v>2558.5714285714289</v>
       </c>
       <c r="D103" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E103" s="7"/>
     </row>
@@ -5297,7 +5331,7 @@
         <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C104" s="8">
         <v>3695.7142857142858</v>
@@ -5312,7 +5346,7 @@
         <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C105" s="8">
         <v>3695.7142857142858</v>
@@ -5324,16 +5358,16 @@
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C106" s="8">
-        <v>4548.5714285714284</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D106" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E106" s="7"/>
     </row>
@@ -5342,7 +5376,7 @@
         <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C107" s="8">
         <v>4548.5714285714284</v>
@@ -5357,7 +5391,7 @@
         <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C108" s="8">
         <v>4548.5714285714284</v>
@@ -5369,16 +5403,16 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C109" s="8">
-        <v>3127.1428571428573</v>
+        <v>4548.5714285714284</v>
       </c>
       <c r="D109" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E109" s="7"/>
     </row>
@@ -5387,7 +5421,7 @@
         <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C110" s="8">
         <v>3127.1428571428573</v>
@@ -5402,7 +5436,7 @@
         <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C111" s="8">
         <v>3127.1428571428573</v>
@@ -5414,16 +5448,16 @@
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C112" s="8">
-        <v>3695.7142857142858</v>
+        <v>3127.1428571428573</v>
       </c>
       <c r="D112" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E112" s="7"/>
     </row>
@@ -5432,7 +5466,7 @@
         <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C113" s="8">
         <v>3695.7142857142858</v>
@@ -5447,7 +5481,7 @@
         <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C114" s="8">
         <v>3695.7142857142858</v>
@@ -5459,16 +5493,16 @@
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C115" s="8">
-        <v>7107.1428571428578</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D115" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E115" s="7"/>
     </row>
@@ -5477,7 +5511,7 @@
         <v>51</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C116" s="8">
         <v>7107.1428571428578</v>
@@ -5492,7 +5526,7 @@
         <v>51</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C117" s="8">
         <v>7107.1428571428578</v>
@@ -5504,16 +5538,16 @@
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C118" s="8">
-        <v>3127.1428571428573</v>
+        <v>7107.1428571428578</v>
       </c>
       <c r="D118" s="6">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E118" s="7"/>
     </row>
@@ -5522,7 +5556,7 @@
         <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C119" s="8">
         <v>3127.1428571428573</v>
@@ -5537,7 +5571,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C120" s="8">
         <v>3127.1428571428573</v>
@@ -5549,16 +5583,16 @@
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C121" s="8">
-        <v>3980.0000000000005</v>
+        <v>3127.1428571428573</v>
       </c>
       <c r="D121" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E121" s="7"/>
     </row>
@@ -5567,7 +5601,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C122" s="8">
         <v>3980.0000000000005</v>
@@ -5582,7 +5616,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C123" s="8">
         <v>3980.0000000000005</v>
@@ -5594,10 +5628,10 @@
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C124" s="8">
         <v>3980.0000000000005</v>
@@ -5612,7 +5646,7 @@
         <v>97</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C125" s="8">
         <v>3980.0000000000005</v>
@@ -5627,7 +5661,7 @@
         <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C126" s="8">
         <v>3980.0000000000005</v>
@@ -5638,8 +5672,19 @@
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="A127" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D127" s="6">
+        <v>14</v>
+      </c>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
@@ -5753,7 +5798,10 @@
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
     <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6605,6 +6653,7 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/planilhas/turmas_precos.xlsx
+++ b/planilhas/turmas_precos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instituto Mix\Documents\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656533A4-C202-4564-A3FA-BEE8602BBD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B46EBB-2DDE-4034-A3B9-E48D566A2D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="102">
   <si>
     <t>Modalidade</t>
   </si>
@@ -338,17 +338,30 @@
   </si>
   <si>
     <t>DEPILAÇÃO PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>LASH DESINGER + DESIGN DE SOBRANCELHA</t>
+  </si>
+  <si>
+    <t>SEXTA-FEIRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,22 +454,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H982"/>
+  <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1046,20 +1060,20 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
+      <c r="B21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,16 +1081,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,64 +1101,64 @@
         <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>10</v>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>23</v>
+      <c r="E24" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,7 +1169,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -1164,7 +1178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1186,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>44</v>
@@ -1186,10 +1200,10 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>44</v>
@@ -1206,7 +1220,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>44</v>
@@ -1223,7 +1237,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -1237,7 +1251,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -1257,7 +1271,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
@@ -1274,7 +1288,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>44</v>
@@ -1287,8 +1301,8 @@
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>48</v>
+      <c r="B35" t="s">
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1308,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1325,7 +1339,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>44</v>
@@ -1338,11 +1352,11 @@
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
-        <v>82</v>
+      <c r="B38" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
@@ -1359,7 +1373,7 @@
         <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>44</v>
@@ -1376,7 +1390,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
@@ -1389,8 +1403,8 @@
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>52</v>
+      <c r="B41" t="s">
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
@@ -1410,7 +1424,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>44</v>
@@ -1427,7 +1441,7 @@
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>44</v>
@@ -1440,11 +1454,11 @@
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
+      <c r="B44" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>44</v>
@@ -1461,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>44</v>
@@ -1478,7 +1492,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>44</v>
@@ -1492,10 +1506,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>44</v>
@@ -1512,7 +1526,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>44</v>
@@ -1529,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>44</v>
@@ -1543,10 +1557,10 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>44</v>
@@ -1563,7 +1577,7 @@
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>44</v>
@@ -1580,7 +1594,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>44</v>
@@ -1594,7 +1608,7 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -1614,7 +1628,7 @@
         <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>44</v>
@@ -1631,7 +1645,7 @@
         <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>44</v>
@@ -1645,10 +1659,10 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>44</v>
@@ -1665,7 +1679,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>44</v>
@@ -1682,7 +1696,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>44</v>
@@ -1696,10 +1710,10 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>44</v>
@@ -1716,7 +1730,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>44</v>
@@ -1733,7 +1747,7 @@
         <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>44</v>
@@ -1747,7 +1761,7 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
@@ -1767,7 +1781,7 @@
         <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>44</v>
@@ -1784,7 +1798,7 @@
         <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>44</v>
@@ -1797,11 +1811,11 @@
       <c r="A65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>50</v>
+      <c r="B65" t="s">
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>44</v>
@@ -1818,7 +1832,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>44</v>
@@ -1835,7 +1849,7 @@
         <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>44</v>
@@ -1848,11 +1862,11 @@
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B68" t="s">
-        <v>87</v>
+      <c r="B68" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>44</v>
@@ -1869,7 +1883,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>44</v>
@@ -1886,7 +1900,7 @@
         <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>44</v>
@@ -1900,10 +1914,10 @@
         <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>44</v>
@@ -1920,7 +1934,7 @@
         <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>44</v>
@@ -1937,7 +1951,7 @@
         <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>44</v>
@@ -1951,10 +1965,10 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>44</v>
@@ -1971,7 +1985,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>44</v>
@@ -1988,7 +2002,7 @@
         <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>44</v>
@@ -2002,10 +2016,10 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>44</v>
@@ -2022,7 +2036,7 @@
         <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>44</v>
@@ -2039,7 +2053,7 @@
         <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>44</v>
@@ -2053,10 +2067,10 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>44</v>
@@ -2073,7 +2087,7 @@
         <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>44</v>
@@ -2090,7 +2104,7 @@
         <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>44</v>
@@ -2104,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>44</v>
@@ -2124,7 +2138,7 @@
         <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>44</v>
@@ -2141,7 +2155,7 @@
         <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>44</v>
@@ -2155,10 +2169,10 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>44</v>
@@ -2175,7 +2189,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>44</v>
@@ -2192,7 +2206,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>44</v>
@@ -2205,11 +2219,11 @@
       <c r="A89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>58</v>
+      <c r="B89" t="s">
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>44</v>
@@ -2226,7 +2240,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>44</v>
@@ -2243,7 +2257,7 @@
         <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>44</v>
@@ -2257,10 +2271,10 @@
         <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>44</v>
@@ -2277,7 +2291,7 @@
         <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>44</v>
@@ -2294,7 +2308,7 @@
         <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>44</v>
@@ -2307,11 +2321,11 @@
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B95" t="s">
-        <v>89</v>
+      <c r="B95" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>44</v>
@@ -2328,7 +2342,7 @@
         <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>44</v>
@@ -2345,7 +2359,7 @@
         <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>44</v>
@@ -2359,10 +2373,10 @@
         <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>44</v>
@@ -2379,7 +2393,7 @@
         <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>44</v>
@@ -2396,7 +2410,7 @@
         <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>44</v>
@@ -2410,10 +2424,10 @@
         <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>44</v>
@@ -2430,7 +2444,7 @@
         <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>44</v>
@@ -2447,7 +2461,7 @@
         <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>44</v>
@@ -2461,10 +2475,10 @@
         <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>44</v>
@@ -2481,7 +2495,7 @@
         <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>44</v>
@@ -2498,7 +2512,7 @@
         <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>44</v>
@@ -2512,10 +2526,10 @@
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>44</v>
@@ -2532,7 +2546,7 @@
         <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>44</v>
@@ -2549,7 +2563,7 @@
         <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>44</v>
@@ -2563,10 +2577,10 @@
         <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>44</v>
@@ -2583,7 +2597,7 @@
         <v>93</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>44</v>
@@ -2600,7 +2614,7 @@
         <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>44</v>
@@ -2614,10 +2628,10 @@
         <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>44</v>
@@ -2634,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>44</v>
@@ -2651,7 +2665,7 @@
         <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>44</v>
@@ -2665,10 +2679,10 @@
         <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>44</v>
@@ -2685,7 +2699,7 @@
         <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>44</v>
@@ -2702,7 +2716,7 @@
         <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>44</v>
@@ -2716,10 +2730,10 @@
         <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>44</v>
@@ -2736,7 +2750,7 @@
         <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>44</v>
@@ -2753,7 +2767,7 @@
         <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>44</v>
@@ -2767,10 +2781,10 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>44</v>
@@ -2787,7 +2801,7 @@
         <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>44</v>
@@ -2804,7 +2818,7 @@
         <v>96</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>44</v>
@@ -2818,10 +2832,10 @@
         <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>44</v>
@@ -2838,7 +2852,7 @@
         <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>44</v>
@@ -2855,7 +2869,7 @@
         <v>97</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>44</v>
@@ -2865,11 +2879,21 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
@@ -2941,7 +2965,13 @@
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3785,8 +3815,9 @@
     <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -3794,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1008"/>
+  <dimension ref="A1:E1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3989,31 +4020,31 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4017.56</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
+      <c r="A14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2781.39</v>
+      </c>
+      <c r="D14" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>3399</v>
+        <v>4017.56</v>
       </c>
       <c r="D15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,7 +4052,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>3399</v>
@@ -4032,13 +4063,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>3645.71</v>
+        <v>3399</v>
       </c>
       <c r="D17" s="2">
         <v>11</v>
@@ -4046,16 +4077,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>4980.46</v>
+        <v>3645.71</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4063,7 +4094,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>4980.46</v>
@@ -4074,16 +4105,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>3838.63</v>
+        <v>4980.46</v>
       </c>
       <c r="D20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4091,7 +4122,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>3838.63</v>
@@ -4105,7 +4136,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>3838.63</v>
@@ -4119,7 +4150,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
         <v>3838.63</v>
@@ -4133,7 +4164,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>3838.63</v>
@@ -4147,7 +4178,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
         <v>3838.63</v>
@@ -4157,26 +4188,25 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
+      <c r="A26" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="8">
-        <v>3980.0000000000005</v>
-      </c>
-      <c r="D26" s="6">
-        <v>14</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3838.63</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27" s="8">
         <v>3980.0000000000005</v>
@@ -4191,7 +4221,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C28" s="8">
         <v>3980.0000000000005</v>
@@ -4201,18 +4231,18 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C29" s="8">
-        <v>2842.8571428571431</v>
+        <v>3980.0000000000005</v>
       </c>
       <c r="D29" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -4221,7 +4251,7 @@
         <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30" s="8">
         <v>2842.8571428571431</v>
@@ -4236,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C31" s="8">
         <v>2842.8571428571431</v>
@@ -4248,16 +4278,16 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="8">
-        <v>3695.7142857142858</v>
+        <v>2842.8571428571431</v>
       </c>
       <c r="D32" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -4266,7 +4296,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C33" s="8">
         <v>3695.7142857142858</v>
@@ -4281,7 +4311,7 @@
         <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34" s="8">
         <v>3695.7142857142858</v>
@@ -4292,17 +4322,17 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>48</v>
+      <c r="A35" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="8">
-        <v>2842.8571428571431</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D35" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="7"/>
     </row>
@@ -4311,7 +4341,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" s="8">
         <v>2842.8571428571431</v>
@@ -4326,7 +4356,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C37" s="8">
         <v>2842.8571428571431</v>
@@ -4337,17 +4367,17 @@
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
+      <c r="A38" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C38" s="8">
-        <v>2274.2857142857142</v>
+        <v>2842.8571428571431</v>
       </c>
       <c r="D38" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -4356,7 +4386,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C39" s="8">
         <v>2274.2857142857142</v>
@@ -4371,7 +4401,7 @@
         <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8">
         <v>2274.2857142857142</v>
@@ -4382,17 +4412,17 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
+      <c r="A41" t="s">
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="8">
-        <v>3411.4285714285716</v>
+        <v>2274.2857142857142</v>
       </c>
       <c r="D41" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E41" s="7"/>
     </row>
@@ -4401,7 +4431,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42" s="8">
         <v>3411.4285714285716</v>
@@ -4416,7 +4446,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8">
         <v>3411.4285714285716</v>
@@ -4427,17 +4457,17 @@
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
+      <c r="A44" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C44" s="8">
-        <v>4548.5714285714284</v>
+        <v>3411.4285714285716</v>
       </c>
       <c r="D44" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E44" s="7"/>
     </row>
@@ -4446,7 +4476,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C45" s="8">
         <v>4548.5714285714284</v>
@@ -4461,7 +4491,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C46" s="8">
         <v>4548.5714285714284</v>
@@ -4473,16 +4503,16 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C47" s="8">
-        <v>5970</v>
+        <v>4548.5714285714284</v>
       </c>
       <c r="D47" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E47" s="7"/>
     </row>
@@ -4491,7 +4521,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C48" s="8">
         <v>5970</v>
@@ -4506,7 +4536,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C49" s="8">
         <v>5970</v>
@@ -4518,16 +4548,16 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C50" s="8">
-        <v>4832.8571428571431</v>
+        <v>5970</v>
       </c>
       <c r="D50" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E50" s="7"/>
     </row>
@@ -4536,7 +4566,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C51" s="8">
         <v>4832.8571428571431</v>
@@ -4551,7 +4581,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C52" s="8">
         <v>4832.8571428571431</v>
@@ -4563,16 +4593,16 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="8">
-        <v>2558.5714285714289</v>
+        <v>4832.8571428571431</v>
       </c>
       <c r="D53" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E53" s="7"/>
     </row>
@@ -4581,7 +4611,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C54" s="8">
         <v>2558.5714285714289</v>
@@ -4596,7 +4626,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C55" s="8">
         <v>2558.5714285714289</v>
@@ -4608,16 +4638,16 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C56" s="8">
-        <v>3695.7142857142858</v>
+        <v>2558.5714285714289</v>
       </c>
       <c r="D56" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E56" s="7"/>
     </row>
@@ -4626,7 +4656,7 @@
         <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C57" s="8">
         <v>3695.7142857142858</v>
@@ -4641,7 +4671,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C58" s="8">
         <v>3695.7142857142858</v>
@@ -4653,16 +4683,16 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C59" s="8">
-        <v>5401.4285714285716</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D59" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59" s="7"/>
     </row>
@@ -4671,7 +4701,7 @@
         <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C60" s="8">
         <v>5401.4285714285716</v>
@@ -4686,7 +4716,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C61" s="8">
         <v>5401.4285714285716</v>
@@ -4698,16 +4728,16 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C62" s="8">
-        <v>3411.4285714285716</v>
+        <v>5401.4285714285716</v>
       </c>
       <c r="D62" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E62" s="7"/>
     </row>
@@ -4716,7 +4746,7 @@
         <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C63" s="8">
         <v>3411.4285714285716</v>
@@ -4731,7 +4761,7 @@
         <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" s="8">
         <v>3411.4285714285716</v>
@@ -4742,17 +4772,17 @@
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>50</v>
+      <c r="A65" t="s">
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C65" s="8">
-        <v>2274.2857142857142</v>
+        <v>3411.4285714285716</v>
       </c>
       <c r="D65" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E65" s="7"/>
     </row>
@@ -4761,7 +4791,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C66" s="8">
         <v>2274.2857142857142</v>
@@ -4776,7 +4806,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C67" s="8">
         <v>2274.2857142857142</v>
@@ -4787,17 +4817,17 @@
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>87</v>
+      <c r="A68" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C68" s="8">
-        <v>5401.4285714285716</v>
+        <v>2274.2857142857142</v>
       </c>
       <c r="D68" s="6">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E68" s="7"/>
     </row>
@@ -4806,7 +4836,7 @@
         <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C69" s="8">
         <v>5401.4285714285716</v>
@@ -4821,7 +4851,7 @@
         <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C70" s="8">
         <v>5401.4285714285716</v>
@@ -4833,10 +4863,10 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C71" s="8">
         <v>5401.4285714285716</v>
@@ -4851,7 +4881,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C72" s="8">
         <v>5401.4285714285716</v>
@@ -4866,7 +4896,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C73" s="8">
         <v>5401.4285714285716</v>
@@ -4878,16 +4908,16 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C74" s="8">
-        <v>4832.8571428571431</v>
+        <v>5401.4285714285716</v>
       </c>
       <c r="D74" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -4896,7 +4926,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C75" s="8">
         <v>4832.8571428571431</v>
@@ -4911,7 +4941,7 @@
         <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C76" s="8">
         <v>4832.8571428571431</v>
@@ -4923,16 +4953,16 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C77" s="8">
-        <v>4264.2857142857147</v>
+        <v>4832.8571428571431</v>
       </c>
       <c r="D77" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -4941,7 +4971,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C78" s="8">
         <v>4264.2857142857147</v>
@@ -4956,7 +4986,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C79" s="8">
         <v>4264.2857142857147</v>
@@ -4968,16 +4998,16 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C80" s="8">
-        <v>4832.8571428571431</v>
+        <v>4264.2857142857147</v>
       </c>
       <c r="D80" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E80" s="7"/>
     </row>
@@ -4986,7 +5016,7 @@
         <v>45</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C81" s="8">
         <v>4832.8571428571431</v>
@@ -5001,7 +5031,7 @@
         <v>45</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C82" s="8">
         <v>4832.8571428571431</v>
@@ -5013,16 +5043,16 @@
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C83" s="8">
-        <v>5970</v>
+        <v>4832.8571428571431</v>
       </c>
       <c r="D83" s="6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E83" s="7"/>
     </row>
@@ -5031,7 +5061,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C84" s="8">
         <v>5970</v>
@@ -5046,7 +5076,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C85" s="8">
         <v>5970</v>
@@ -5058,16 +5088,16 @@
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C86" s="8">
-        <v>7391.4285714285716</v>
+        <v>5970</v>
       </c>
       <c r="D86" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E86" s="7"/>
     </row>
@@ -5076,7 +5106,7 @@
         <v>55</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C87" s="8">
         <v>7391.4285714285716</v>
@@ -5091,7 +5121,7 @@
         <v>55</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C88" s="8">
         <v>7391.4285714285716</v>
@@ -5102,17 +5132,17 @@
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>58</v>
+      <c r="A89" t="s">
+        <v>55</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C89" s="8">
-        <v>3127.1428571428573</v>
+        <v>7391.4285714285716</v>
       </c>
       <c r="D89" s="6">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E89" s="7"/>
     </row>
@@ -5121,7 +5151,7 @@
         <v>58</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C90" s="8">
         <v>3127.1428571428573</v>
@@ -5136,7 +5166,7 @@
         <v>58</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C91" s="8">
         <v>3127.1428571428573</v>
@@ -5148,16 +5178,16 @@
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C92" s="8">
-        <v>2842.8571428571431</v>
+        <v>3127.1428571428573</v>
       </c>
       <c r="D92" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" s="7"/>
     </row>
@@ -5166,7 +5196,7 @@
         <v>59</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C93" s="8">
         <v>2842.8571428571431</v>
@@ -5181,7 +5211,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C94" s="8">
         <v>2842.8571428571431</v>
@@ -5192,17 +5222,17 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>89</v>
+      <c r="A95" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C95" s="8">
-        <v>4264.2857142857147</v>
+        <v>2842.8571428571431</v>
       </c>
       <c r="D95" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95" s="7"/>
     </row>
@@ -5211,7 +5241,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C96" s="8">
         <v>4264.2857142857147</v>
@@ -5226,7 +5256,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C97" s="8">
         <v>4264.2857142857147</v>
@@ -5238,16 +5268,16 @@
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C98" s="8">
-        <v>3411.4285714285716</v>
+        <v>4264.2857142857147</v>
       </c>
       <c r="D98" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E98" s="7"/>
     </row>
@@ -5256,7 +5286,7 @@
         <v>60</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C99" s="8">
         <v>3411.4285714285716</v>
@@ -5271,7 +5301,7 @@
         <v>60</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C100" s="8">
         <v>3411.4285714285716</v>
@@ -5283,16 +5313,16 @@
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C101" s="8">
-        <v>2558.5714285714289</v>
+        <v>3411.4285714285716</v>
       </c>
       <c r="D101" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E101" s="7"/>
     </row>
@@ -5301,7 +5331,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C102" s="8">
         <v>2558.5714285714289</v>
@@ -5316,7 +5346,7 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C103" s="8">
         <v>2558.5714285714289</v>
@@ -5328,16 +5358,16 @@
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C104" s="8">
-        <v>3695.7142857142858</v>
+        <v>2558.5714285714289</v>
       </c>
       <c r="D104" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E104" s="7"/>
     </row>
@@ -5346,7 +5376,7 @@
         <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C105" s="8">
         <v>3695.7142857142858</v>
@@ -5361,7 +5391,7 @@
         <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C106" s="8">
         <v>3695.7142857142858</v>
@@ -5373,16 +5403,16 @@
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C107" s="8">
-        <v>4548.5714285714284</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D107" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E107" s="7"/>
     </row>
@@ -5391,7 +5421,7 @@
         <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C108" s="8">
         <v>4548.5714285714284</v>
@@ -5406,7 +5436,7 @@
         <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C109" s="8">
         <v>4548.5714285714284</v>
@@ -5418,16 +5448,16 @@
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C110" s="8">
-        <v>3127.1428571428573</v>
+        <v>4548.5714285714284</v>
       </c>
       <c r="D110" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E110" s="7"/>
     </row>
@@ -5436,7 +5466,7 @@
         <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C111" s="8">
         <v>3127.1428571428573</v>
@@ -5451,7 +5481,7 @@
         <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C112" s="8">
         <v>3127.1428571428573</v>
@@ -5463,16 +5493,16 @@
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C113" s="8">
-        <v>3695.7142857142858</v>
+        <v>3127.1428571428573</v>
       </c>
       <c r="D113" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E113" s="7"/>
     </row>
@@ -5481,7 +5511,7 @@
         <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C114" s="8">
         <v>3695.7142857142858</v>
@@ -5496,7 +5526,7 @@
         <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C115" s="8">
         <v>3695.7142857142858</v>
@@ -5508,16 +5538,16 @@
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C116" s="8">
-        <v>7107.1428571428578</v>
+        <v>3695.7142857142858</v>
       </c>
       <c r="D116" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E116" s="7"/>
     </row>
@@ -5526,7 +5556,7 @@
         <v>51</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C117" s="8">
         <v>7107.1428571428578</v>
@@ -5541,7 +5571,7 @@
         <v>51</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C118" s="8">
         <v>7107.1428571428578</v>
@@ -5553,16 +5583,16 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C119" s="8">
-        <v>3127.1428571428573</v>
+        <v>7107.1428571428578</v>
       </c>
       <c r="D119" s="6">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E119" s="7"/>
     </row>
@@ -5571,7 +5601,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C120" s="8">
         <v>3127.1428571428573</v>
@@ -5586,7 +5616,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C121" s="8">
         <v>3127.1428571428573</v>
@@ -5598,16 +5628,16 @@
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C122" s="8">
-        <v>3980.0000000000005</v>
+        <v>3127.1428571428573</v>
       </c>
       <c r="D122" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E122" s="7"/>
     </row>
@@ -5616,7 +5646,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C123" s="8">
         <v>3980.0000000000005</v>
@@ -5631,7 +5661,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C124" s="8">
         <v>3980.0000000000005</v>
@@ -5643,10 +5673,10 @@
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C125" s="8">
         <v>3980.0000000000005</v>
@@ -5661,7 +5691,7 @@
         <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C126" s="8">
         <v>3980.0000000000005</v>
@@ -5676,7 +5706,7 @@
         <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C127" s="8">
         <v>3980.0000000000005</v>
@@ -5687,8 +5717,19 @@
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="A128" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="8">
+        <v>3980.0000000000005</v>
+      </c>
+      <c r="D128" s="6">
+        <v>14</v>
+      </c>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
@@ -5802,7 +5843,10 @@
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+    </row>
     <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6654,6 +6698,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
